--- a/fhir/core/3.3.0/CodeSystem-dk-core-municipality-codes-greenland.xlsx
+++ b/fhir/core/3.3.0/CodeSystem-dk-core-municipality-codes-greenland.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:51:05+01:00</t>
+    <t>2024-12-11T10:16:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
